--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.1538363351845</v>
+        <v>1.157479</v>
       </c>
       <c r="H2">
-        <v>1.1538363351845</v>
+        <v>2.314958</v>
       </c>
       <c r="I2">
-        <v>0.1307164151340175</v>
+        <v>0.1271864703226002</v>
       </c>
       <c r="J2">
-        <v>0.1307164151340175</v>
+        <v>0.1061280697012296</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.93276371967586</v>
+        <v>3.016684</v>
       </c>
       <c r="N2">
-        <v>2.93276371967586</v>
+        <v>6.033367999999999</v>
       </c>
       <c r="O2">
-        <v>0.1349336347549949</v>
+        <v>0.1358466530961894</v>
       </c>
       <c r="P2">
-        <v>0.1349336347549949</v>
+        <v>0.09965128472037957</v>
       </c>
       <c r="Q2">
-        <v>3.383929342272856</v>
+        <v>3.491748379635999</v>
       </c>
       <c r="R2">
-        <v>3.383929342272856</v>
+        <v>13.966993518544</v>
       </c>
       <c r="S2">
-        <v>0.0176380410161758</v>
+        <v>0.01727785631244305</v>
       </c>
       <c r="T2">
-        <v>0.0176380410161758</v>
+        <v>0.01057579849062152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.1538363351845</v>
+        <v>1.157479</v>
       </c>
       <c r="H3">
-        <v>1.1538363351845</v>
+        <v>2.314958</v>
       </c>
       <c r="I3">
-        <v>0.1307164151340175</v>
+        <v>0.1271864703226002</v>
       </c>
       <c r="J3">
-        <v>0.1307164151340175</v>
+        <v>0.1061280697012296</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.04221617643063</v>
+        <v>4.197185666666667</v>
       </c>
       <c r="N3">
-        <v>4.04221617643063</v>
+        <v>12.591557</v>
       </c>
       <c r="O3">
-        <v>0.1859784739875007</v>
+        <v>0.1890067455656493</v>
       </c>
       <c r="P3">
-        <v>0.1859784739875007</v>
+        <v>0.2079708765783702</v>
       </c>
       <c r="Q3">
-        <v>4.66405589903622</v>
+        <v>4.858154268267667</v>
       </c>
       <c r="R3">
-        <v>4.66405589903622</v>
+        <v>29.148925609606</v>
       </c>
       <c r="S3">
-        <v>0.02431043941174121</v>
+        <v>0.02403910083565669</v>
       </c>
       <c r="T3">
-        <v>0.02431043941174121</v>
+        <v>0.0220715476853351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.1538363351845</v>
+        <v>1.157479</v>
       </c>
       <c r="H4">
-        <v>1.1538363351845</v>
+        <v>2.314958</v>
       </c>
       <c r="I4">
-        <v>0.1307164151340175</v>
+        <v>0.1271864703226002</v>
       </c>
       <c r="J4">
-        <v>0.1307164151340175</v>
+        <v>0.1061280697012296</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.70851426645183</v>
+        <v>4.727411333333333</v>
       </c>
       <c r="N4">
-        <v>4.70851426645183</v>
+        <v>14.182234</v>
       </c>
       <c r="O4">
-        <v>0.2166342075243326</v>
+        <v>0.2128837516433035</v>
       </c>
       <c r="P4">
-        <v>0.2166342075243326</v>
+        <v>0.234243599645347</v>
       </c>
       <c r="Q4">
-        <v>5.432854845366713</v>
+        <v>5.471879342695333</v>
       </c>
       <c r="R4">
-        <v>5.432854845366713</v>
+        <v>32.83127605617199</v>
       </c>
       <c r="S4">
-        <v>0.02831764700297956</v>
+        <v>0.0270759329605448</v>
       </c>
       <c r="T4">
-        <v>0.02831764700297956</v>
+        <v>0.02485982107022831</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.1538363351845</v>
+        <v>1.157479</v>
       </c>
       <c r="H5">
-        <v>1.1538363351845</v>
+        <v>2.314958</v>
       </c>
       <c r="I5">
-        <v>0.1307164151340175</v>
+        <v>0.1271864703226002</v>
       </c>
       <c r="J5">
-        <v>0.1307164151340175</v>
+        <v>0.1061280697012296</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.93117476060019</v>
+        <v>4.969342333333334</v>
       </c>
       <c r="N5">
-        <v>4.93117476060019</v>
+        <v>14.908027</v>
       </c>
       <c r="O5">
-        <v>0.2268786024580991</v>
+        <v>0.2237783354413461</v>
       </c>
       <c r="P5">
-        <v>0.2268786024580991</v>
+        <v>0.2462312995322192</v>
       </c>
       <c r="Q5">
-        <v>5.689768613925228</v>
+        <v>5.751909394644334</v>
       </c>
       <c r="R5">
-        <v>5.689768613925228</v>
+        <v>34.511456367866</v>
       </c>
       <c r="S5">
-        <v>0.02965675758393861</v>
+        <v>0.02846157661945163</v>
       </c>
       <c r="T5">
-        <v>0.02965675758393861</v>
+        <v>0.02613205251937971</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.1538363351845</v>
+        <v>1.157479</v>
       </c>
       <c r="H6">
-        <v>1.1538363351845</v>
+        <v>2.314958</v>
       </c>
       <c r="I6">
-        <v>0.1307164151340175</v>
+        <v>0.1271864703226002</v>
       </c>
       <c r="J6">
-        <v>0.1307164151340175</v>
+        <v>0.1061280697012296</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.20073927495205</v>
+        <v>2.237791666666666</v>
       </c>
       <c r="N6">
-        <v>2.20073927495205</v>
+        <v>6.713374999999999</v>
       </c>
       <c r="O6">
-        <v>0.1012538949268551</v>
+        <v>0.1007717441545784</v>
       </c>
       <c r="P6">
-        <v>0.1012538949268551</v>
+        <v>0.1108827513189446</v>
       </c>
       <c r="Q6">
-        <v>2.539292939707267</v>
+        <v>2.590196860541666</v>
       </c>
       <c r="R6">
-        <v>2.539292939707267</v>
+        <v>15.54118116325</v>
       </c>
       <c r="S6">
-        <v>0.01323554616319498</v>
+        <v>0.01281680244727294</v>
       </c>
       <c r="T6">
-        <v>0.01323554616319498</v>
+        <v>0.01176777236064106</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.1538363351845</v>
+        <v>1.157479</v>
       </c>
       <c r="H7">
-        <v>1.1538363351845</v>
+        <v>2.314958</v>
       </c>
       <c r="I7">
-        <v>0.1307164151340175</v>
+        <v>0.1271864703226002</v>
       </c>
       <c r="J7">
-        <v>0.1307164151340175</v>
+        <v>0.1061280697012296</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.91945223902961</v>
+        <v>3.058124</v>
       </c>
       <c r="N7">
-        <v>2.91945223902961</v>
+        <v>6.116248000000001</v>
       </c>
       <c r="O7">
-        <v>0.1343211863482178</v>
+        <v>0.1377127700989335</v>
       </c>
       <c r="P7">
-        <v>0.1343211863482178</v>
+        <v>0.1010201882047394</v>
       </c>
       <c r="Q7">
-        <v>3.368570072228108</v>
+        <v>3.539714309396</v>
       </c>
       <c r="R7">
-        <v>3.368570072228108</v>
+        <v>14.158857237584</v>
       </c>
       <c r="S7">
-        <v>0.01755798395598736</v>
+        <v>0.01751520114723106</v>
       </c>
       <c r="T7">
-        <v>0.01755798395598736</v>
+        <v>0.01072107757502392</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.78117188688308</v>
+        <v>1.907334666666667</v>
       </c>
       <c r="H8">
-        <v>1.78117188688308</v>
+        <v>5.722004</v>
       </c>
       <c r="I8">
-        <v>0.2017863337209088</v>
+        <v>0.2095823457507795</v>
       </c>
       <c r="J8">
-        <v>0.2017863337209088</v>
+        <v>0.2623223571843268</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.93276371967586</v>
+        <v>3.016684</v>
       </c>
       <c r="N8">
-        <v>2.93276371967586</v>
+        <v>6.033367999999999</v>
       </c>
       <c r="O8">
-        <v>0.1349336347549949</v>
+        <v>0.1358466530961894</v>
       </c>
       <c r="P8">
-        <v>0.1349336347549949</v>
+        <v>0.09965128472037957</v>
       </c>
       <c r="Q8">
-        <v>5.223756288357292</v>
+        <v>5.753825971578666</v>
       </c>
       <c r="R8">
-        <v>5.223756288357292</v>
+        <v>34.522955829472</v>
       </c>
       <c r="S8">
-        <v>0.02722776345284662</v>
+        <v>0.02847106021829176</v>
       </c>
       <c r="T8">
-        <v>0.02722776345284662</v>
+        <v>0.02614075990429645</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.78117188688308</v>
+        <v>1.907334666666667</v>
       </c>
       <c r="H9">
-        <v>1.78117188688308</v>
+        <v>5.722004</v>
       </c>
       <c r="I9">
-        <v>0.2017863337209088</v>
+        <v>0.2095823457507795</v>
       </c>
       <c r="J9">
-        <v>0.2017863337209088</v>
+        <v>0.2623223571843268</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.04221617643063</v>
+        <v>4.197185666666667</v>
       </c>
       <c r="N9">
-        <v>4.04221617643063</v>
+        <v>12.591557</v>
       </c>
       <c r="O9">
-        <v>0.1859784739875007</v>
+        <v>0.1890067455656493</v>
       </c>
       <c r="P9">
-        <v>0.1859784739875007</v>
+        <v>0.2079708765783702</v>
       </c>
       <c r="Q9">
-        <v>7.199881814162254</v>
+        <v>8.005437724469779</v>
       </c>
       <c r="R9">
-        <v>7.199881814162254</v>
+        <v>72.048939520228</v>
       </c>
       <c r="S9">
-        <v>0.03752791441694717</v>
+        <v>0.03961247709836951</v>
       </c>
       <c r="T9">
-        <v>0.03752791441694717</v>
+        <v>0.05455541056972878</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.78117188688308</v>
+        <v>1.907334666666667</v>
       </c>
       <c r="H10">
-        <v>1.78117188688308</v>
+        <v>5.722004</v>
       </c>
       <c r="I10">
-        <v>0.2017863337209088</v>
+        <v>0.2095823457507795</v>
       </c>
       <c r="J10">
-        <v>0.2017863337209088</v>
+        <v>0.2623223571843268</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.70851426645183</v>
+        <v>4.727411333333333</v>
       </c>
       <c r="N10">
-        <v>4.70851426645183</v>
+        <v>14.182234</v>
       </c>
       <c r="O10">
-        <v>0.2166342075243326</v>
+        <v>0.2128837516433035</v>
       </c>
       <c r="P10">
-        <v>0.2166342075243326</v>
+        <v>0.234243599645347</v>
       </c>
       <c r="Q10">
-        <v>8.386673240391906</v>
+        <v>9.016755519659556</v>
       </c>
       <c r="R10">
-        <v>8.386673240391906</v>
+        <v>81.150799676936</v>
       </c>
       <c r="S10">
-        <v>0.0437138224948696</v>
+        <v>0.04461667604162991</v>
       </c>
       <c r="T10">
-        <v>0.0437138224948696</v>
+        <v>0.06144733321430915</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.78117188688308</v>
+        <v>1.907334666666667</v>
       </c>
       <c r="H11">
-        <v>1.78117188688308</v>
+        <v>5.722004</v>
       </c>
       <c r="I11">
-        <v>0.2017863337209088</v>
+        <v>0.2095823457507795</v>
       </c>
       <c r="J11">
-        <v>0.2017863337209088</v>
+        <v>0.2623223571843268</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.93117476060019</v>
+        <v>4.969342333333334</v>
       </c>
       <c r="N11">
-        <v>4.93117476060019</v>
+        <v>14.908027</v>
       </c>
       <c r="O11">
-        <v>0.2268786024580991</v>
+        <v>0.2237783354413461</v>
       </c>
       <c r="P11">
-        <v>0.2268786024580991</v>
+        <v>0.2462312995322192</v>
       </c>
       <c r="Q11">
-        <v>8.783269852888461</v>
+        <v>9.478198902900889</v>
       </c>
       <c r="R11">
-        <v>8.783269852888461</v>
+        <v>85.303790126108</v>
       </c>
       <c r="S11">
-        <v>0.04578100138974339</v>
+        <v>0.0468999884700021</v>
       </c>
       <c r="T11">
-        <v>0.04578100138974339</v>
+        <v>0.06459197490585177</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.78117188688308</v>
+        <v>1.907334666666667</v>
       </c>
       <c r="H12">
-        <v>1.78117188688308</v>
+        <v>5.722004</v>
       </c>
       <c r="I12">
-        <v>0.2017863337209088</v>
+        <v>0.2095823457507795</v>
       </c>
       <c r="J12">
-        <v>0.2017863337209088</v>
+        <v>0.2623223571843268</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.20073927495205</v>
+        <v>2.237791666666666</v>
       </c>
       <c r="N12">
-        <v>2.20073927495205</v>
+        <v>6.713374999999999</v>
       </c>
       <c r="O12">
-        <v>0.1012538949268551</v>
+        <v>0.1007717441545784</v>
       </c>
       <c r="P12">
-        <v>0.1012538949268551</v>
+        <v>0.1108827513189446</v>
       </c>
       <c r="Q12">
-        <v>3.919894926904044</v>
+        <v>4.26821762261111</v>
       </c>
       <c r="R12">
-        <v>3.919894926904044</v>
+        <v>38.4139586035</v>
       </c>
       <c r="S12">
-        <v>0.02043165223225222</v>
+        <v>0.02111997852531394</v>
       </c>
       <c r="T12">
-        <v>0.02043165223225222</v>
+        <v>0.02908702469706907</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.78117188688308</v>
+        <v>1.907334666666667</v>
       </c>
       <c r="H13">
-        <v>1.78117188688308</v>
+        <v>5.722004</v>
       </c>
       <c r="I13">
-        <v>0.2017863337209088</v>
+        <v>0.2095823457507795</v>
       </c>
       <c r="J13">
-        <v>0.2017863337209088</v>
+        <v>0.2623223571843268</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.91945223902961</v>
+        <v>3.058124</v>
       </c>
       <c r="N13">
-        <v>2.91945223902961</v>
+        <v>6.116248000000001</v>
       </c>
       <c r="O13">
-        <v>0.1343211863482178</v>
+        <v>0.1377127700989335</v>
       </c>
       <c r="P13">
-        <v>0.1343211863482178</v>
+        <v>0.1010201882047394</v>
       </c>
       <c r="Q13">
-        <v>5.200046253257403</v>
+        <v>5.832865920165334</v>
       </c>
       <c r="R13">
-        <v>5.200046253257403</v>
+        <v>34.997195520992</v>
       </c>
       <c r="S13">
-        <v>0.02710417973424985</v>
+        <v>0.02886216539717229</v>
       </c>
       <c r="T13">
-        <v>0.02710417973424985</v>
+        <v>0.02649985389307157</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.417099432135787</v>
+        <v>0.082912</v>
       </c>
       <c r="H14">
-        <v>0.417099432135787</v>
+        <v>0.248736</v>
       </c>
       <c r="I14">
-        <v>0.04725257894960154</v>
+        <v>0.009110562375116461</v>
       </c>
       <c r="J14">
-        <v>0.04725257894960154</v>
+        <v>0.01140317515272634</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.93276371967586</v>
+        <v>3.016684</v>
       </c>
       <c r="N14">
-        <v>2.93276371967586</v>
+        <v>6.033367999999999</v>
       </c>
       <c r="O14">
-        <v>0.1349336347549949</v>
+        <v>0.1358466530961894</v>
       </c>
       <c r="P14">
-        <v>0.1349336347549949</v>
+        <v>0.09965128472037957</v>
       </c>
       <c r="Q14">
-        <v>1.22325408206524</v>
+        <v>0.250119303808</v>
       </c>
       <c r="R14">
-        <v>1.22325408206524</v>
+        <v>1.500715822848</v>
       </c>
       <c r="S14">
-        <v>0.006375962229217095</v>
+        <v>0.001237639406483641</v>
       </c>
       <c r="T14">
-        <v>0.006375962229217095</v>
+        <v>0.00113634105386069</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.417099432135787</v>
+        <v>0.082912</v>
       </c>
       <c r="H15">
-        <v>0.417099432135787</v>
+        <v>0.248736</v>
       </c>
       <c r="I15">
-        <v>0.04725257894960154</v>
+        <v>0.009110562375116461</v>
       </c>
       <c r="J15">
-        <v>0.04725257894960154</v>
+        <v>0.01140317515272634</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.04221617643063</v>
+        <v>4.197185666666667</v>
       </c>
       <c r="N15">
-        <v>4.04221617643063</v>
+        <v>12.591557</v>
       </c>
       <c r="O15">
-        <v>0.1859784739875007</v>
+        <v>0.1890067455656493</v>
       </c>
       <c r="P15">
-        <v>0.1859784739875007</v>
+        <v>0.2079708765783702</v>
       </c>
       <c r="Q15">
-        <v>1.686006071759308</v>
+        <v>0.3479970579946667</v>
       </c>
       <c r="R15">
-        <v>1.686006071759308</v>
+        <v>3.131973521952</v>
       </c>
       <c r="S15">
-        <v>0.008787962525020792</v>
+        <v>0.001721957744793614</v>
       </c>
       <c r="T15">
-        <v>0.008787962525020792</v>
+        <v>0.002371528332289187</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.417099432135787</v>
+        <v>0.082912</v>
       </c>
       <c r="H16">
-        <v>0.417099432135787</v>
+        <v>0.248736</v>
       </c>
       <c r="I16">
-        <v>0.04725257894960154</v>
+        <v>0.009110562375116461</v>
       </c>
       <c r="J16">
-        <v>0.04725257894960154</v>
+        <v>0.01140317515272634</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.70851426645183</v>
+        <v>4.727411333333333</v>
       </c>
       <c r="N16">
-        <v>4.70851426645183</v>
+        <v>14.182234</v>
       </c>
       <c r="O16">
-        <v>0.2166342075243326</v>
+        <v>0.2128837516433035</v>
       </c>
       <c r="P16">
-        <v>0.2166342075243326</v>
+        <v>0.234243599645347</v>
       </c>
       <c r="Q16">
-        <v>1.96391862674031</v>
+        <v>0.3919591284693333</v>
       </c>
       <c r="R16">
-        <v>1.96391862674031</v>
+        <v>3.527632156224</v>
       </c>
       <c r="S16">
-        <v>0.01023652499422789</v>
+        <v>0.001939490697995118</v>
       </c>
       <c r="T16">
-        <v>0.01023652499422789</v>
+        <v>0.002671120795160996</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.417099432135787</v>
+        <v>0.082912</v>
       </c>
       <c r="H17">
-        <v>0.417099432135787</v>
+        <v>0.248736</v>
       </c>
       <c r="I17">
-        <v>0.04725257894960154</v>
+        <v>0.009110562375116461</v>
       </c>
       <c r="J17">
-        <v>0.04725257894960154</v>
+        <v>0.01140317515272634</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.93117476060019</v>
+        <v>4.969342333333334</v>
       </c>
       <c r="N17">
-        <v>4.93117476060019</v>
+        <v>14.908027</v>
       </c>
       <c r="O17">
-        <v>0.2268786024580991</v>
+        <v>0.2237783354413461</v>
       </c>
       <c r="P17">
-        <v>0.2268786024580991</v>
+        <v>0.2462312995322192</v>
       </c>
       <c r="Q17">
-        <v>2.056790192408665</v>
+        <v>0.4120181115413333</v>
       </c>
       <c r="R17">
-        <v>2.056790192408665</v>
+        <v>3.708163003872</v>
       </c>
       <c r="S17">
-        <v>0.01072059907462659</v>
+        <v>0.002038746483238118</v>
       </c>
       <c r="T17">
-        <v>0.01072059907462659</v>
+        <v>0.002807818636649318</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.417099432135787</v>
+        <v>0.082912</v>
       </c>
       <c r="H18">
-        <v>0.417099432135787</v>
+        <v>0.248736</v>
       </c>
       <c r="I18">
-        <v>0.04725257894960154</v>
+        <v>0.009110562375116461</v>
       </c>
       <c r="J18">
-        <v>0.04725257894960154</v>
+        <v>0.01140317515272634</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.20073927495205</v>
+        <v>2.237791666666666</v>
       </c>
       <c r="N18">
-        <v>2.20073927495205</v>
+        <v>6.713374999999999</v>
       </c>
       <c r="O18">
-        <v>0.1012538949268551</v>
+        <v>0.1007717441545784</v>
       </c>
       <c r="P18">
-        <v>0.1012538949268551</v>
+        <v>0.1108827513189446</v>
       </c>
       <c r="Q18">
-        <v>0.9179271018614237</v>
+        <v>0.1855397826666667</v>
       </c>
       <c r="R18">
-        <v>0.9179271018614237</v>
+        <v>1.669858044</v>
       </c>
       <c r="S18">
-        <v>0.004784507663985879</v>
+        <v>0.0009180872607695638</v>
       </c>
       <c r="T18">
-        <v>0.004784507663985879</v>
+        <v>0.001264415434706123</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.417099432135787</v>
+        <v>0.082912</v>
       </c>
       <c r="H19">
-        <v>0.417099432135787</v>
+        <v>0.248736</v>
       </c>
       <c r="I19">
-        <v>0.04725257894960154</v>
+        <v>0.009110562375116461</v>
       </c>
       <c r="J19">
-        <v>0.04725257894960154</v>
+        <v>0.01140317515272634</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.91945223902961</v>
+        <v>3.058124</v>
       </c>
       <c r="N19">
-        <v>2.91945223902961</v>
+        <v>6.116248000000001</v>
       </c>
       <c r="O19">
-        <v>0.1343211863482178</v>
+        <v>0.1377127700989335</v>
       </c>
       <c r="P19">
-        <v>0.1343211863482178</v>
+        <v>0.1010201882047394</v>
       </c>
       <c r="Q19">
-        <v>1.217701871046802</v>
+        <v>0.253555177088</v>
       </c>
       <c r="R19">
-        <v>1.217701871046802</v>
+        <v>1.521331062528</v>
       </c>
       <c r="S19">
-        <v>0.006347022462523301</v>
+        <v>0.001254640781836407</v>
       </c>
       <c r="T19">
-        <v>0.006347022462523301</v>
+        <v>0.001151950900060023</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.14635145219639</v>
+        <v>0.4192326666666666</v>
       </c>
       <c r="H20">
-        <v>1.14635145219639</v>
+        <v>1.257698</v>
       </c>
       <c r="I20">
-        <v>0.1298684637893869</v>
+        <v>0.04606625529902878</v>
       </c>
       <c r="J20">
-        <v>0.1298684637893869</v>
+        <v>0.05765852382941596</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.93276371967586</v>
+        <v>3.016684</v>
       </c>
       <c r="N20">
-        <v>2.93276371967586</v>
+        <v>6.033367999999999</v>
       </c>
       <c r="O20">
-        <v>0.1349336347549949</v>
+        <v>0.1358466530961894</v>
       </c>
       <c r="P20">
-        <v>0.1349336347549949</v>
+        <v>0.09965128472037957</v>
       </c>
       <c r="Q20">
-        <v>3.361977948999308</v>
+        <v>1.264692477810667</v>
       </c>
       <c r="R20">
-        <v>3.361977948999308</v>
+        <v>7.588154866864</v>
       </c>
       <c r="S20">
-        <v>0.01752362385914941</v>
+        <v>0.006257946603047658</v>
       </c>
       <c r="T20">
-        <v>0.01752362385914941</v>
+        <v>0.005745745974681919</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.14635145219639</v>
+        <v>0.4192326666666666</v>
       </c>
       <c r="H21">
-        <v>1.14635145219639</v>
+        <v>1.257698</v>
       </c>
       <c r="I21">
-        <v>0.1298684637893869</v>
+        <v>0.04606625529902878</v>
       </c>
       <c r="J21">
-        <v>0.1298684637893869</v>
+        <v>0.05765852382941596</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.04221617643063</v>
+        <v>4.197185666666667</v>
       </c>
       <c r="N21">
-        <v>4.04221617643063</v>
+        <v>12.591557</v>
       </c>
       <c r="O21">
-        <v>0.1859784739875007</v>
+        <v>0.1890067455656493</v>
       </c>
       <c r="P21">
-        <v>0.1859784739875007</v>
+        <v>0.2079708765783702</v>
       </c>
       <c r="Q21">
-        <v>4.633800383942992</v>
+        <v>1.759597339531778</v>
       </c>
       <c r="R21">
-        <v>4.633800383942992</v>
+        <v>15.836376055786</v>
       </c>
       <c r="S21">
-        <v>0.02415273871465116</v>
+        <v>0.008706832994465775</v>
       </c>
       <c r="T21">
-        <v>0.02415273871465116</v>
+        <v>0.01199129374301849</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.14635145219639</v>
+        <v>0.4192326666666666</v>
       </c>
       <c r="H22">
-        <v>1.14635145219639</v>
+        <v>1.257698</v>
       </c>
       <c r="I22">
-        <v>0.1298684637893869</v>
+        <v>0.04606625529902878</v>
       </c>
       <c r="J22">
-        <v>0.1298684637893869</v>
+        <v>0.05765852382941596</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.70851426645183</v>
+        <v>4.727411333333333</v>
       </c>
       <c r="N22">
-        <v>4.70851426645183</v>
+        <v>14.182234</v>
       </c>
       <c r="O22">
-        <v>0.2166342075243326</v>
+        <v>0.2128837516433035</v>
       </c>
       <c r="P22">
-        <v>0.2166342075243326</v>
+        <v>0.234243599645347</v>
       </c>
       <c r="Q22">
-        <v>5.397612167034475</v>
+        <v>1.981885259703555</v>
       </c>
       <c r="R22">
-        <v>5.397612167034475</v>
+        <v>17.836967337332</v>
       </c>
       <c r="S22">
-        <v>0.02813395173541632</v>
+        <v>0.009806757252215458</v>
       </c>
       <c r="T22">
-        <v>0.02813395173541632</v>
+        <v>0.01350614017203941</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.14635145219639</v>
+        <v>0.4192326666666666</v>
       </c>
       <c r="H23">
-        <v>1.14635145219639</v>
+        <v>1.257698</v>
       </c>
       <c r="I23">
-        <v>0.1298684637893869</v>
+        <v>0.04606625529902878</v>
       </c>
       <c r="J23">
-        <v>0.1298684637893869</v>
+        <v>0.05765852382941596</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.93117476060019</v>
+        <v>4.969342333333334</v>
       </c>
       <c r="N23">
-        <v>4.93117476060019</v>
+        <v>14.908027</v>
       </c>
       <c r="O23">
-        <v>0.2268786024580991</v>
+        <v>0.2237783354413461</v>
       </c>
       <c r="P23">
-        <v>0.2268786024580991</v>
+        <v>0.2462312995322192</v>
       </c>
       <c r="Q23">
-        <v>5.652859347848214</v>
+        <v>2.083310637982889</v>
       </c>
       <c r="R23">
-        <v>5.652859347848214</v>
+        <v>18.749795741846</v>
       </c>
       <c r="S23">
-        <v>0.02946437556791635</v>
+        <v>0.01030862993083275</v>
       </c>
       <c r="T23">
-        <v>0.02946437556791635</v>
+        <v>0.01419733325162652</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.14635145219639</v>
+        <v>0.4192326666666666</v>
       </c>
       <c r="H24">
-        <v>1.14635145219639</v>
+        <v>1.257698</v>
       </c>
       <c r="I24">
-        <v>0.1298684637893869</v>
+        <v>0.04606625529902878</v>
       </c>
       <c r="J24">
-        <v>0.1298684637893869</v>
+        <v>0.05765852382941596</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.20073927495205</v>
+        <v>2.237791666666666</v>
       </c>
       <c r="N24">
-        <v>2.20073927495205</v>
+        <v>6.713374999999999</v>
       </c>
       <c r="O24">
-        <v>0.1012538949268551</v>
+        <v>0.1007717441545784</v>
       </c>
       <c r="P24">
-        <v>0.1012538949268551</v>
+        <v>0.1108827513189446</v>
       </c>
       <c r="Q24">
-        <v>2.522820663746913</v>
+        <v>0.938155367861111</v>
       </c>
       <c r="R24">
-        <v>2.522820663746913</v>
+        <v>8.443398310749998</v>
       </c>
       <c r="S24">
-        <v>0.01314968778684267</v>
+        <v>0.004642176893153218</v>
       </c>
       <c r="T24">
-        <v>0.01314968778684267</v>
+        <v>0.006393335759194571</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.14635145219639</v>
+        <v>0.4192326666666666</v>
       </c>
       <c r="H25">
-        <v>1.14635145219639</v>
+        <v>1.257698</v>
       </c>
       <c r="I25">
-        <v>0.1298684637893869</v>
+        <v>0.04606625529902878</v>
       </c>
       <c r="J25">
-        <v>0.1298684637893869</v>
+        <v>0.05765852382941596</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.91945223902961</v>
+        <v>3.058124</v>
       </c>
       <c r="N25">
-        <v>2.91945223902961</v>
+        <v>6.116248000000001</v>
       </c>
       <c r="O25">
-        <v>0.1343211863482178</v>
+        <v>0.1377127700989335</v>
       </c>
       <c r="P25">
-        <v>0.1343211863482178</v>
+        <v>0.1010201882047394</v>
       </c>
       <c r="Q25">
-        <v>3.346718313829596</v>
+        <v>1.282065479517333</v>
       </c>
       <c r="R25">
-        <v>3.346718313829596</v>
+        <v>7.692392877104001</v>
       </c>
       <c r="S25">
-        <v>0.01744408612541101</v>
+        <v>0.006343911625313927</v>
       </c>
       <c r="T25">
-        <v>0.01744408612541101</v>
+        <v>0.005824674928855052</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.32856031577094</v>
+        <v>1.202101333333333</v>
       </c>
       <c r="H26">
-        <v>4.32856031577094</v>
+        <v>3.606304</v>
       </c>
       <c r="I26">
-        <v>0.4903762084060853</v>
+        <v>0.1320896755420687</v>
       </c>
       <c r="J26">
-        <v>0.4903762084060853</v>
+        <v>0.1653291689420815</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.93276371967586</v>
+        <v>3.016684</v>
       </c>
       <c r="N26">
-        <v>2.93276371967586</v>
+        <v>6.033367999999999</v>
       </c>
       <c r="O26">
-        <v>0.1349336347549949</v>
+        <v>0.1358466530961894</v>
       </c>
       <c r="P26">
-        <v>0.1349336347549949</v>
+        <v>0.09965128472037957</v>
       </c>
       <c r="Q26">
-        <v>12.6946446525217</v>
+        <v>3.626359858645333</v>
       </c>
       <c r="R26">
-        <v>12.6946446525217</v>
+        <v>21.758159151872</v>
       </c>
       <c r="S26">
-        <v>0.06616824419760596</v>
+        <v>0.01794394033095161</v>
       </c>
       <c r="T26">
-        <v>0.06616824419760596</v>
+        <v>0.0164752640868311</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.32856031577094</v>
+        <v>1.202101333333333</v>
       </c>
       <c r="H27">
-        <v>4.32856031577094</v>
+        <v>3.606304</v>
       </c>
       <c r="I27">
-        <v>0.4903762084060853</v>
+        <v>0.1320896755420687</v>
       </c>
       <c r="J27">
-        <v>0.4903762084060853</v>
+        <v>0.1653291689420815</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.04221617643063</v>
+        <v>4.197185666666667</v>
       </c>
       <c r="N27">
-        <v>4.04221617643063</v>
+        <v>12.591557</v>
       </c>
       <c r="O27">
-        <v>0.1859784739875007</v>
+        <v>0.1890067455656493</v>
       </c>
       <c r="P27">
-        <v>0.1859784739875007</v>
+        <v>0.2079708765783702</v>
       </c>
       <c r="Q27">
-        <v>17.49697652906497</v>
+        <v>5.045442486147556</v>
       </c>
       <c r="R27">
-        <v>17.49697652906497</v>
+        <v>45.40898237532799</v>
       </c>
       <c r="S27">
-        <v>0.09119941891914034</v>
+        <v>0.02496583969702893</v>
       </c>
       <c r="T27">
-        <v>0.09119941891914034</v>
+        <v>0.03438365218885816</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.32856031577094</v>
+        <v>1.202101333333333</v>
       </c>
       <c r="H28">
-        <v>4.32856031577094</v>
+        <v>3.606304</v>
       </c>
       <c r="I28">
-        <v>0.4903762084060853</v>
+        <v>0.1320896755420687</v>
       </c>
       <c r="J28">
-        <v>0.4903762084060853</v>
+        <v>0.1653291689420815</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.70851426645183</v>
+        <v>4.727411333333333</v>
       </c>
       <c r="N28">
-        <v>4.70851426645183</v>
+        <v>14.182234</v>
       </c>
       <c r="O28">
-        <v>0.2166342075243326</v>
+        <v>0.2128837516433035</v>
       </c>
       <c r="P28">
-        <v>0.2166342075243326</v>
+        <v>0.234243599645347</v>
       </c>
       <c r="Q28">
-        <v>20.38108800000471</v>
+        <v>5.682827467015111</v>
       </c>
       <c r="R28">
-        <v>20.38108800000471</v>
+        <v>51.14544720313599</v>
       </c>
       <c r="S28">
-        <v>0.1062322612968392</v>
+        <v>0.02811974568274228</v>
       </c>
       <c r="T28">
-        <v>0.1062322612968392</v>
+        <v>0.03872729965936687</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.32856031577094</v>
+        <v>1.202101333333333</v>
       </c>
       <c r="H29">
-        <v>4.32856031577094</v>
+        <v>3.606304</v>
       </c>
       <c r="I29">
-        <v>0.4903762084060853</v>
+        <v>0.1320896755420687</v>
       </c>
       <c r="J29">
-        <v>0.4903762084060853</v>
+        <v>0.1653291689420815</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.93117476060019</v>
+        <v>4.969342333333334</v>
       </c>
       <c r="N29">
-        <v>4.93117476060019</v>
+        <v>14.908027</v>
       </c>
       <c r="O29">
-        <v>0.2268786024580991</v>
+        <v>0.2237783354413461</v>
       </c>
       <c r="P29">
-        <v>0.2268786024580991</v>
+        <v>0.2462312995322192</v>
       </c>
       <c r="Q29">
-        <v>21.34488737886525</v>
+        <v>5.973653044689778</v>
       </c>
       <c r="R29">
-        <v>21.34488737886525</v>
+        <v>53.762877402208</v>
       </c>
       <c r="S29">
-        <v>0.1112558688418742</v>
+        <v>0.02955880772179161</v>
       </c>
       <c r="T29">
-        <v>0.1112558688418742</v>
+        <v>0.04070921611919055</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.32856031577094</v>
+        <v>1.202101333333333</v>
       </c>
       <c r="H30">
-        <v>4.32856031577094</v>
+        <v>3.606304</v>
       </c>
       <c r="I30">
-        <v>0.4903762084060853</v>
+        <v>0.1320896755420687</v>
       </c>
       <c r="J30">
-        <v>0.4903762084060853</v>
+        <v>0.1653291689420815</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.20073927495205</v>
+        <v>2.237791666666666</v>
       </c>
       <c r="N30">
-        <v>2.20073927495205</v>
+        <v>6.713374999999999</v>
       </c>
       <c r="O30">
-        <v>0.1012538949268551</v>
+        <v>0.1007717441545784</v>
       </c>
       <c r="P30">
-        <v>0.1012538949268551</v>
+        <v>0.1108827513189446</v>
       </c>
       <c r="Q30">
-        <v>9.526032690915955</v>
+        <v>2.690052346222222</v>
       </c>
       <c r="R30">
-        <v>9.526032690915955</v>
+        <v>24.21047111599999</v>
       </c>
       <c r="S30">
-        <v>0.04965250108057935</v>
+        <v>0.01331090698918661</v>
       </c>
       <c r="T30">
-        <v>0.04965250108057935</v>
+        <v>0.0183321531255726</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.202101333333333</v>
+      </c>
+      <c r="H31">
+        <v>3.606304</v>
+      </c>
+      <c r="I31">
+        <v>0.1320896755420687</v>
+      </c>
+      <c r="J31">
+        <v>0.1653291689420815</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.058124</v>
+      </c>
+      <c r="N31">
+        <v>6.116248000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.1377127700989335</v>
+      </c>
+      <c r="P31">
+        <v>0.1010201882047394</v>
+      </c>
+      <c r="Q31">
+        <v>3.676174937898667</v>
+      </c>
+      <c r="R31">
+        <v>22.057049627392</v>
+      </c>
+      <c r="S31">
+        <v>0.01819043512036762</v>
+      </c>
+      <c r="T31">
+        <v>0.01670158376226223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>4.331586</v>
+      </c>
+      <c r="H32">
+        <v>8.663171999999999</v>
+      </c>
+      <c r="I32">
+        <v>0.4759646907104063</v>
+      </c>
+      <c r="J32">
+        <v>0.3971587051902198</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.016684</v>
+      </c>
+      <c r="N32">
+        <v>6.033367999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.1358466530961894</v>
+      </c>
+      <c r="P32">
+        <v>0.09965128472037957</v>
+      </c>
+      <c r="Q32">
+        <v>13.067026180824</v>
+      </c>
+      <c r="R32">
+        <v>52.26810472329599</v>
+      </c>
+      <c r="S32">
+        <v>0.06465821022497163</v>
+      </c>
+      <c r="T32">
+        <v>0.03957737521008788</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>4.331586</v>
+      </c>
+      <c r="H33">
+        <v>8.663171999999999</v>
+      </c>
+      <c r="I33">
+        <v>0.4759646907104063</v>
+      </c>
+      <c r="J33">
+        <v>0.3971587051902198</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.197185666666667</v>
+      </c>
+      <c r="N33">
+        <v>12.591557</v>
+      </c>
+      <c r="O33">
+        <v>0.1890067455656493</v>
+      </c>
+      <c r="P33">
+        <v>0.2079708765783702</v>
+      </c>
+      <c r="Q33">
+        <v>18.180470673134</v>
+      </c>
+      <c r="R33">
+        <v>109.082824038804</v>
+      </c>
+      <c r="S33">
+        <v>0.0899605371953347</v>
+      </c>
+      <c r="T33">
+        <v>0.08259744405914053</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>4.331586</v>
+      </c>
+      <c r="H34">
+        <v>8.663171999999999</v>
+      </c>
+      <c r="I34">
+        <v>0.4759646907104063</v>
+      </c>
+      <c r="J34">
+        <v>0.3971587051902198</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>4.727411333333333</v>
+      </c>
+      <c r="N34">
+        <v>14.182234</v>
+      </c>
+      <c r="O34">
+        <v>0.2128837516433035</v>
+      </c>
+      <c r="P34">
+        <v>0.234243599645347</v>
+      </c>
+      <c r="Q34">
+        <v>20.477188747708</v>
+      </c>
+      <c r="R34">
+        <v>122.863132486248</v>
+      </c>
+      <c r="S34">
+        <v>0.1013251490081759</v>
+      </c>
+      <c r="T34">
+        <v>0.09303188473424223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>4.331586</v>
+      </c>
+      <c r="H35">
+        <v>8.663171999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.4759646907104063</v>
+      </c>
+      <c r="J35">
+        <v>0.3971587051902198</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>4.969342333333334</v>
+      </c>
+      <c r="N35">
+        <v>14.908027</v>
+      </c>
+      <c r="O35">
+        <v>0.2237783354413461</v>
+      </c>
+      <c r="P35">
+        <v>0.2462312995322192</v>
+      </c>
+      <c r="Q35">
+        <v>21.525133680274</v>
+      </c>
+      <c r="R35">
+        <v>129.150802081644</v>
+      </c>
+      <c r="S35">
+        <v>0.1065105862160298</v>
+      </c>
+      <c r="T35">
+        <v>0.09779290409952135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>4.32856031577094</v>
-      </c>
-      <c r="H31">
-        <v>4.32856031577094</v>
-      </c>
-      <c r="I31">
-        <v>0.4903762084060853</v>
-      </c>
-      <c r="J31">
-        <v>0.4903762084060853</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>2.91945223902961</v>
-      </c>
-      <c r="N31">
-        <v>2.91945223902961</v>
-      </c>
-      <c r="O31">
-        <v>0.1343211863482178</v>
-      </c>
-      <c r="P31">
-        <v>0.1343211863482178</v>
-      </c>
-      <c r="Q31">
-        <v>12.63702510565219</v>
-      </c>
-      <c r="R31">
-        <v>12.63702510565219</v>
-      </c>
-      <c r="S31">
-        <v>0.06586791407004625</v>
-      </c>
-      <c r="T31">
-        <v>0.06586791407004625</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>4.331586</v>
+      </c>
+      <c r="H36">
+        <v>8.663171999999999</v>
+      </c>
+      <c r="I36">
+        <v>0.4759646907104063</v>
+      </c>
+      <c r="J36">
+        <v>0.3971587051902198</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.237791666666666</v>
+      </c>
+      <c r="N36">
+        <v>6.713374999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.1007717441545784</v>
+      </c>
+      <c r="P36">
+        <v>0.1108827513189446</v>
+      </c>
+      <c r="Q36">
+        <v>9.693187054249998</v>
+      </c>
+      <c r="R36">
+        <v>58.15912232549999</v>
+      </c>
+      <c r="S36">
+        <v>0.04796379203888208</v>
+      </c>
+      <c r="T36">
+        <v>0.04403804994176118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>4.331586</v>
+      </c>
+      <c r="H37">
+        <v>8.663171999999999</v>
+      </c>
+      <c r="I37">
+        <v>0.4759646907104063</v>
+      </c>
+      <c r="J37">
+        <v>0.3971587051902198</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.058124</v>
+      </c>
+      <c r="N37">
+        <v>6.116248000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.1377127700989335</v>
+      </c>
+      <c r="P37">
+        <v>0.1010201882047394</v>
+      </c>
+      <c r="Q37">
+        <v>13.246527104664</v>
+      </c>
+      <c r="R37">
+        <v>52.986108418656</v>
+      </c>
+      <c r="S37">
+        <v>0.06554641602701217</v>
+      </c>
+      <c r="T37">
+        <v>0.04012104714546662</v>
       </c>
     </row>
   </sheetData>
